--- a/data/pca/factorExposure/factorExposure_2009-07-22.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-07-22.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01675927791037801</v>
+        <v>0.01662642195694922</v>
       </c>
       <c r="C2">
-        <v>0.001312142617359542</v>
+        <v>-0.0008788444228805971</v>
       </c>
       <c r="D2">
-        <v>0.007929870904273613</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.009181660860523456</v>
+      </c>
+      <c r="E2">
+        <v>-0.001237673530658993</v>
+      </c>
+      <c r="F2">
+        <v>0.01246209312602355</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +751,36 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.09062234607758589</v>
+        <v>0.09140816982378765</v>
       </c>
       <c r="C4">
-        <v>0.01965437065367603</v>
+        <v>-0.01435717317604734</v>
       </c>
       <c r="D4">
-        <v>0.07306942522199002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.08319191448268923</v>
+      </c>
+      <c r="E4">
+        <v>-0.02836386685378674</v>
+      </c>
+      <c r="F4">
+        <v>-0.03253425064068787</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,192 +791,276 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1517779516963212</v>
+        <v>0.1608886780185382</v>
       </c>
       <c r="C6">
-        <v>0.02874208799613548</v>
+        <v>-0.02779158863485696</v>
       </c>
       <c r="D6">
-        <v>-0.03121898335846283</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.02685760872738944</v>
+      </c>
+      <c r="E6">
+        <v>-0.008885867708099598</v>
+      </c>
+      <c r="F6">
+        <v>-0.04166821670645074</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.06177987927593384</v>
+        <v>0.06270849507311885</v>
       </c>
       <c r="C7">
-        <v>0.002209313433037973</v>
+        <v>0.001672324054895301</v>
       </c>
       <c r="D7">
-        <v>0.04411492024238552</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05259300013966583</v>
+      </c>
+      <c r="E7">
+        <v>-0.01325871106439663</v>
+      </c>
+      <c r="F7">
+        <v>-0.04896824933180315</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.06240285198581024</v>
+        <v>0.05799851684084358</v>
       </c>
       <c r="C8">
-        <v>-0.01077738823361635</v>
+        <v>0.01255653380580535</v>
       </c>
       <c r="D8">
-        <v>0.02662950097550825</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03051234143328242</v>
+      </c>
+      <c r="E8">
+        <v>-0.01706780745905125</v>
+      </c>
+      <c r="F8">
+        <v>0.02564350344767369</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.07067813270656717</v>
+        <v>0.07066058202528197</v>
       </c>
       <c r="C9">
-        <v>0.01645415894755939</v>
+        <v>-0.01026070185398049</v>
       </c>
       <c r="D9">
-        <v>0.07344967843450097</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.08646492744121449</v>
+      </c>
+      <c r="E9">
+        <v>-0.02499827912661198</v>
+      </c>
+      <c r="F9">
+        <v>-0.04880980636066302</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.08559671782644805</v>
+        <v>0.08918968319650021</v>
       </c>
       <c r="C10">
-        <v>0.01399860112696635</v>
+        <v>-0.02135330393952235</v>
       </c>
       <c r="D10">
-        <v>-0.1657331295756079</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1605518897590389</v>
+      </c>
+      <c r="E10">
+        <v>0.03281980557171016</v>
+      </c>
+      <c r="F10">
+        <v>0.05752373563215693</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.09114888602691543</v>
+        <v>0.08784649533548386</v>
       </c>
       <c r="C11">
-        <v>0.01745245774770801</v>
+        <v>-0.01099800116312987</v>
       </c>
       <c r="D11">
-        <v>0.1048331166651927</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.1177490945492859</v>
+      </c>
+      <c r="E11">
+        <v>-0.04773299696186287</v>
+      </c>
+      <c r="F11">
+        <v>-0.02318359789915626</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.09599717453980097</v>
+        <v>0.09043672312408324</v>
       </c>
       <c r="C12">
-        <v>0.01512261582263718</v>
+        <v>-0.008075908647757606</v>
       </c>
       <c r="D12">
-        <v>0.1077880222363529</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.1319598109355148</v>
+      </c>
+      <c r="E12">
+        <v>-0.0468148979876394</v>
+      </c>
+      <c r="F12">
+        <v>-0.02977309823187871</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.04398532847930223</v>
+        <v>0.04368580792293021</v>
       </c>
       <c r="C13">
-        <v>0.005726894016361689</v>
+        <v>-0.002363366317931512</v>
       </c>
       <c r="D13">
-        <v>0.03559471646510151</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.0534836681745265</v>
+      </c>
+      <c r="E13">
+        <v>0.0006255845837379183</v>
+      </c>
+      <c r="F13">
+        <v>-0.003694743478657639</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.01864851749332909</v>
+        <v>0.02316770052862157</v>
       </c>
       <c r="C14">
-        <v>0.01487990833612322</v>
+        <v>-0.01367281277835569</v>
       </c>
       <c r="D14">
-        <v>0.02654091645555348</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03338236403937128</v>
+      </c>
+      <c r="E14">
+        <v>-0.01816764649602039</v>
+      </c>
+      <c r="F14">
+        <v>-0.01340914320574789</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.03336959083707975</v>
+        <v>0.03313671845444802</v>
       </c>
       <c r="C15">
-        <v>0.007396433795688732</v>
+        <v>-0.005134041680520954</v>
       </c>
       <c r="D15">
-        <v>0.03884572206767629</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04630029498801012</v>
+      </c>
+      <c r="E15">
+        <v>-0.007700641878804346</v>
+      </c>
+      <c r="F15">
+        <v>-0.02973549675429109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.07519459378557368</v>
+        <v>0.07306819363728903</v>
       </c>
       <c r="C16">
-        <v>0.007893244490059185</v>
+        <v>-0.001289961487113529</v>
       </c>
       <c r="D16">
-        <v>0.1059257333446942</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.1282409537401963</v>
+      </c>
+      <c r="E16">
+        <v>-0.06196819834815853</v>
+      </c>
+      <c r="F16">
+        <v>-0.02574149363591275</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.0003051013358867768</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.0002453589317161886</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>-0.001548325295875355</v>
+      </c>
+      <c r="E17">
+        <v>-0.001172501619562948</v>
+      </c>
+      <c r="F17">
+        <v>0.002475016148862917</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>-0.01799136464048301</v>
+        <v>0.03907822510096014</v>
       </c>
       <c r="C18">
-        <v>-0.003222386103023239</v>
+        <v>0.002893620351411748</v>
       </c>
       <c r="D18">
-        <v>0.02967795143355806</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.01566542578680523</v>
+      </c>
+      <c r="E18">
+        <v>0.007750901211995391</v>
+      </c>
+      <c r="F18">
+        <v>0.008812913164830381</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.06371332026442772</v>
+        <v>0.06244021928719282</v>
       </c>
       <c r="C20">
-        <v>0.005737865225514087</v>
+        <v>-0.0006778098409010025</v>
       </c>
       <c r="D20">
-        <v>0.06388698637044349</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.07855835258788622</v>
+      </c>
+      <c r="E20">
+        <v>-0.05735839913459231</v>
+      </c>
+      <c r="F20">
+        <v>-0.02923065382842789</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.03841686340215825</v>
+        <v>0.04125978874083579</v>
       </c>
       <c r="C21">
-        <v>0.009575744417448628</v>
+        <v>-0.006527550472352338</v>
       </c>
       <c r="D21">
-        <v>0.03553744755559606</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.03784334455639451</v>
+      </c>
+      <c r="E21">
+        <v>0.0009807383403896478</v>
+      </c>
+      <c r="F21">
+        <v>0.02649557297058486</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.04175204651095786</v>
+        <v>0.04416379011027131</v>
       </c>
       <c r="C22">
-        <v>0.001706829659019129</v>
+        <v>-0.0009482429583060949</v>
       </c>
       <c r="D22">
-        <v>-0.003320743012210824</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.006326717271304496</v>
+      </c>
+      <c r="E22">
+        <v>-0.03625146422245994</v>
+      </c>
+      <c r="F22">
+        <v>0.04988945814358253</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.04171488163512333</v>
+        <v>0.04413965981364169</v>
       </c>
       <c r="C23">
-        <v>0.001696553739320938</v>
+        <v>-0.0009393733473900343</v>
       </c>
       <c r="D23">
-        <v>-0.003297912242824128</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.00634129197542195</v>
+      </c>
+      <c r="E23">
+        <v>-0.03643424337502906</v>
+      </c>
+      <c r="F23">
+        <v>0.04986109697862989</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.08186722259488249</v>
+        <v>0.07883801054212272</v>
       </c>
       <c r="C24">
-        <v>0.008178478239784084</v>
+        <v>-0.001954475389243089</v>
       </c>
       <c r="D24">
-        <v>0.1094609560498543</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.1205575341559906</v>
+      </c>
+      <c r="E24">
+        <v>-0.04965491095033768</v>
+      </c>
+      <c r="F24">
+        <v>-0.02830700081064037</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.0873497846410452</v>
+        <v>0.08398852733875688</v>
       </c>
       <c r="C25">
-        <v>0.01086976198793671</v>
+        <v>-0.004669963539945639</v>
       </c>
       <c r="D25">
-        <v>0.09520090459570286</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.1098675486920903</v>
+      </c>
+      <c r="E25">
+        <v>-0.03282215285193608</v>
+      </c>
+      <c r="F25">
+        <v>-0.02625301479800012</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.05772818581346588</v>
+        <v>0.05946871585706671</v>
       </c>
       <c r="C26">
-        <v>0.01749245000676729</v>
+        <v>-0.01449855049468742</v>
       </c>
       <c r="D26">
-        <v>0.02319974771946196</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.04346539116080227</v>
+      </c>
+      <c r="E26">
+        <v>-0.02971303552764577</v>
+      </c>
+      <c r="F26">
+        <v>0.008663673132561075</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1231,216 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1330811705994098</v>
+        <v>0.1419315999288525</v>
       </c>
       <c r="C28">
-        <v>0.01295405576136861</v>
+        <v>-0.02295758871087935</v>
       </c>
       <c r="D28">
-        <v>-0.2707364033491422</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2607491364563174</v>
+      </c>
+      <c r="E28">
+        <v>0.06862898370749128</v>
+      </c>
+      <c r="F28">
+        <v>-0.005657845479543367</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.02537646769133661</v>
+        <v>0.02861651644786469</v>
       </c>
       <c r="C29">
-        <v>0.009641753360821908</v>
+        <v>-0.008847474228238731</v>
       </c>
       <c r="D29">
-        <v>0.02477698855523667</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03121509043092039</v>
+      </c>
+      <c r="E29">
+        <v>-0.01298195945650978</v>
+      </c>
+      <c r="F29">
+        <v>0.01279055831922047</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.06294709303171084</v>
+        <v>0.05846126529077862</v>
       </c>
       <c r="C30">
-        <v>0.00950944044755162</v>
+        <v>-0.002664094127362894</v>
       </c>
       <c r="D30">
-        <v>0.07065086463095505</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08786373767253754</v>
+      </c>
+      <c r="E30">
+        <v>-0.01410493528606306</v>
+      </c>
+      <c r="F30">
+        <v>-0.07921943421171253</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.05041545851470633</v>
+        <v>0.05106719516044923</v>
       </c>
       <c r="C31">
-        <v>0.017040574501615</v>
+        <v>-0.01601991924737244</v>
       </c>
       <c r="D31">
-        <v>0.02205661016767554</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.0249499683828859</v>
+      </c>
+      <c r="E31">
+        <v>-0.02888360077633492</v>
+      </c>
+      <c r="F31">
+        <v>0.0006898815313991653</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.04682214058132284</v>
+        <v>0.05070273768909653</v>
       </c>
       <c r="C32">
-        <v>0.002151854072084487</v>
+        <v>0.001645879665553043</v>
       </c>
       <c r="D32">
-        <v>0.02246065354247887</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03513372676583048</v>
+      </c>
+      <c r="E32">
+        <v>-0.03251539962520619</v>
+      </c>
+      <c r="F32">
+        <v>-0.002314840084799583</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.09118122138959117</v>
+        <v>0.08941545570917332</v>
       </c>
       <c r="C33">
-        <v>0.0137097379163845</v>
+        <v>-0.006796040719246809</v>
       </c>
       <c r="D33">
-        <v>0.08317280516370812</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1034950117412551</v>
+      </c>
+      <c r="E33">
+        <v>-0.0468974576674472</v>
+      </c>
+      <c r="F33">
+        <v>-0.04291379556994931</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.06890169030071601</v>
+        <v>0.06758342166642245</v>
       </c>
       <c r="C34">
-        <v>0.01565267657111682</v>
+        <v>-0.01022352447887572</v>
       </c>
       <c r="D34">
-        <v>0.0902089666863609</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.1095690928063811</v>
+      </c>
+      <c r="E34">
+        <v>-0.03593373876086015</v>
+      </c>
+      <c r="F34">
+        <v>-0.03358963295508735</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.02463834633181941</v>
+        <v>0.02663447052400645</v>
       </c>
       <c r="C35">
-        <v>0.003193440562330358</v>
+        <v>-0.003033358266305465</v>
       </c>
       <c r="D35">
-        <v>0.006950438235902833</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01248438760921227</v>
+      </c>
+      <c r="E35">
+        <v>-0.01314395017765666</v>
+      </c>
+      <c r="F35">
+        <v>-0.0008844313718724964</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.025718077976079</v>
+        <v>0.02768735157254098</v>
       </c>
       <c r="C36">
-        <v>0.007676304210873444</v>
+        <v>-0.006857025836345509</v>
       </c>
       <c r="D36">
-        <v>0.03883036412599544</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.03924434263264254</v>
+      </c>
+      <c r="E36">
+        <v>-0.01693047736260119</v>
+      </c>
+      <c r="F36">
+        <v>-0.01403486921347884</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.0007924982755637763</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>0.0006847939825238643</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-0.002545551227802386</v>
+      </c>
+      <c r="E37">
+        <v>-4.65945452339645e-05</v>
+      </c>
+      <c r="F37">
+        <v>0.001654405243637302</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1451,76 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.1135290150016488</v>
+        <v>0.102244692578748</v>
       </c>
       <c r="C39">
-        <v>0.02369785333100319</v>
+        <v>-0.0159606662068992</v>
       </c>
       <c r="D39">
-        <v>0.1428509865524367</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1515910830445524</v>
+      </c>
+      <c r="E39">
+        <v>-0.05989525615947142</v>
+      </c>
+      <c r="F39">
+        <v>-0.02117957489039707</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.03814859604146963</v>
+        <v>0.04303340197443825</v>
       </c>
       <c r="C40">
-        <v>0.009231012744847795</v>
+        <v>-0.007483561487627063</v>
       </c>
       <c r="D40">
-        <v>0.01822533853895344</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03260710245519569</v>
+      </c>
+      <c r="E40">
+        <v>-0.001750013186390703</v>
+      </c>
+      <c r="F40">
+        <v>0.01583512222241764</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.0255509235182529</v>
+        <v>0.0279120157489024</v>
       </c>
       <c r="C41">
-        <v>0.007316604812808436</v>
+        <v>-0.00684338096387248</v>
       </c>
       <c r="D41">
-        <v>0.00893651501276121</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01083922800825362</v>
+      </c>
+      <c r="E41">
+        <v>-0.01224131659943155</v>
+      </c>
+      <c r="F41">
+        <v>0.007756408481473988</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.04235921841439778</v>
+        <v>0.0405845074708307</v>
       </c>
       <c r="C43">
-        <v>0.008302957989344903</v>
+        <v>-0.007517070826605167</v>
       </c>
       <c r="D43">
-        <v>0.01594950044970624</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.01928955616660043</v>
+      </c>
+      <c r="E43">
+        <v>-0.02574150500316914</v>
+      </c>
+      <c r="F43">
+        <v>0.01660759905184821</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.07047868043121039</v>
+        <v>0.07931361702222427</v>
       </c>
       <c r="C44">
-        <v>0.02548254772600791</v>
+        <v>-0.0194392751048674</v>
       </c>
       <c r="D44">
-        <v>0.09078092413484368</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09639906811383171</v>
+      </c>
+      <c r="E44">
+        <v>-0.06308120686089205</v>
+      </c>
+      <c r="F44">
+        <v>-0.1678762923361065</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,80 +1591,116 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.02189565836758001</v>
+        <v>0.02461705476482537</v>
       </c>
       <c r="C46">
-        <v>0.004176462888811601</v>
+        <v>-0.00366432956752604</v>
       </c>
       <c r="D46">
-        <v>0.004569378648014027</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01329149605303308</v>
+      </c>
+      <c r="E46">
+        <v>-0.02725643769532948</v>
+      </c>
+      <c r="F46">
+        <v>0.005497134920597806</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.05270937353087172</v>
+        <v>0.05237301447218849</v>
       </c>
       <c r="C47">
-        <v>0.004806733534218759</v>
+        <v>-0.004154907695021149</v>
       </c>
       <c r="D47">
-        <v>0.008696919310169368</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01055988258772965</v>
+      </c>
+      <c r="E47">
+        <v>-0.02287678840498332</v>
+      </c>
+      <c r="F47">
+        <v>0.03303018094891737</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04772688388773307</v>
+        <v>0.05048885611935685</v>
       </c>
       <c r="C48">
-        <v>0.004660985213452019</v>
+        <v>-0.002067142620250196</v>
       </c>
       <c r="D48">
-        <v>0.04372569393056513</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.05011184844588299</v>
+      </c>
+      <c r="E48">
+        <v>0.004876821268118969</v>
+      </c>
+      <c r="F48">
+        <v>-0.0126239381515489</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.2020496384692959</v>
+        <v>0.2007822972160627</v>
       </c>
       <c r="C49">
-        <v>0.02195222424250494</v>
+        <v>-0.01973170715645486</v>
       </c>
       <c r="D49">
-        <v>-0.01502820766287254</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.005159317477235741</v>
+      </c>
+      <c r="E49">
+        <v>-0.03265239554115742</v>
+      </c>
+      <c r="F49">
+        <v>-0.04664287554309229</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.04940536724006103</v>
+        <v>0.05143489097433876</v>
       </c>
       <c r="C50">
-        <v>0.01308916289385604</v>
+        <v>-0.01176001650267761</v>
       </c>
       <c r="D50">
-        <v>0.02258059824837656</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.02344923070770388</v>
+      </c>
+      <c r="E50">
+        <v>-0.02991817983143481</v>
+      </c>
+      <c r="F50">
+        <v>-0.01025473454201821</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.1558368114803207</v>
+        <v>0.1494421427317014</v>
       </c>
       <c r="C52">
-        <v>0.02046356444840267</v>
+        <v>-0.01855195390172898</v>
       </c>
       <c r="D52">
-        <v>0.0485452973118783</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.04264138944884671</v>
+      </c>
+      <c r="E52">
+        <v>-0.02300426107849851</v>
+      </c>
+      <c r="F52">
+        <v>-0.04333441713084606</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.174211365488609</v>
+        <v>0.1698715368798359</v>
       </c>
       <c r="C53">
-        <v>0.0207157632237808</v>
+        <v>-0.02115864086592432</v>
       </c>
       <c r="D53">
-        <v>0.012521379386333</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.005817314874130426</v>
+      </c>
+      <c r="E53">
+        <v>-0.03057540884693005</v>
+      </c>
+      <c r="F53">
+        <v>-0.07537327177379129</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.01706095475823755</v>
+        <v>0.0197386380724582</v>
       </c>
       <c r="C54">
-        <v>0.01234078354431846</v>
+        <v>-0.01094742897133686</v>
       </c>
       <c r="D54">
-        <v>0.02766736067018166</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03381261769887567</v>
+      </c>
+      <c r="E54">
+        <v>-0.02150422610845421</v>
+      </c>
+      <c r="F54">
+        <v>0.001526557018830517</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.116948444376677</v>
+        <v>0.1159911492246108</v>
       </c>
       <c r="C55">
-        <v>0.01847176288559177</v>
+        <v>-0.01859917538699982</v>
       </c>
       <c r="D55">
-        <v>0.01055101873691828</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.00874317619941902</v>
+      </c>
+      <c r="E55">
+        <v>-0.02601978737862111</v>
+      </c>
+      <c r="F55">
+        <v>-0.0475980497316337</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1804188607068967</v>
+        <v>0.1762583385938223</v>
       </c>
       <c r="C56">
-        <v>0.01846979856607507</v>
+        <v>-0.01920429596708965</v>
       </c>
       <c r="D56">
-        <v>0.004750973291170587</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.002854442868208704</v>
+      </c>
+      <c r="E56">
+        <v>-0.03313685213020524</v>
+      </c>
+      <c r="F56">
+        <v>-0.0539832088135194</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.04858862217340038</v>
+        <v>0.04592397191770875</v>
       </c>
       <c r="C58">
-        <v>0.00591048153264015</v>
+        <v>0.0004453234238491668</v>
       </c>
       <c r="D58">
-        <v>0.05939959884324777</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.07457361620374976</v>
+      </c>
+      <c r="E58">
+        <v>-0.03538032889992568</v>
+      </c>
+      <c r="F58">
+        <v>0.03592205229145146</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1630219773511478</v>
+        <v>0.1668729985447937</v>
       </c>
       <c r="C59">
-        <v>0.01462031938195218</v>
+        <v>-0.02322746180472948</v>
       </c>
       <c r="D59">
-        <v>-0.2275443425251582</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.2183295925661379</v>
+      </c>
+      <c r="E59">
+        <v>0.04944114856498721</v>
+      </c>
+      <c r="F59">
+        <v>0.03846439947859621</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2389215225205191</v>
+        <v>0.2310094080754056</v>
       </c>
       <c r="C60">
-        <v>0.002362749545250053</v>
+        <v>0.0007835546180602354</v>
       </c>
       <c r="D60">
-        <v>0.04397357961118054</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.03959722421886579</v>
+      </c>
+      <c r="E60">
+        <v>-0.00637720789465414</v>
+      </c>
+      <c r="F60">
+        <v>-0.00261936805072664</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.084426509654926</v>
+        <v>0.07785902361243742</v>
       </c>
       <c r="C61">
-        <v>0.01732466824841291</v>
+        <v>-0.0113114172238332</v>
       </c>
       <c r="D61">
-        <v>0.1030614006690471</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.1163925260359673</v>
+      </c>
+      <c r="E61">
+        <v>-0.03830710094887217</v>
+      </c>
+      <c r="F61">
+        <v>-0.007984577657149017</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1711140015473696</v>
+        <v>0.1686624349714157</v>
       </c>
       <c r="C62">
-        <v>0.02201222446077652</v>
+        <v>-0.02174629297546643</v>
       </c>
       <c r="D62">
-        <v>0.006231766365469232</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.005066257232774789</v>
+      </c>
+      <c r="E62">
+        <v>-0.03325458881220664</v>
+      </c>
+      <c r="F62">
+        <v>-0.04029799315020269</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.04250345270439684</v>
+        <v>0.0463014998360441</v>
       </c>
       <c r="C63">
-        <v>0.005709557429893454</v>
+        <v>-0.001705872373798462</v>
       </c>
       <c r="D63">
-        <v>0.04549219418413712</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.0602959013301491</v>
+      </c>
+      <c r="E63">
+        <v>-0.02492165433387649</v>
+      </c>
+      <c r="F63">
+        <v>-0.0005757465843740968</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.113098066880149</v>
+        <v>0.1106017577451319</v>
       </c>
       <c r="C64">
-        <v>0.01558735629696246</v>
+        <v>-0.01224782527947359</v>
       </c>
       <c r="D64">
-        <v>0.03214269116000178</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04278329759660955</v>
+      </c>
+      <c r="E64">
+        <v>-0.02345610693592271</v>
+      </c>
+      <c r="F64">
+        <v>-0.02537150949324844</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1425841902226611</v>
+        <v>0.1516585952042054</v>
       </c>
       <c r="C65">
-        <v>0.03462081399750058</v>
+        <v>-0.03501132317102942</v>
       </c>
       <c r="D65">
-        <v>-0.05606814952390545</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.0472714723222671</v>
+      </c>
+      <c r="E65">
+        <v>-0.0052396990939497</v>
+      </c>
+      <c r="F65">
+        <v>-0.03851989911365711</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1366928605984561</v>
+        <v>0.1226819746533595</v>
       </c>
       <c r="C66">
-        <v>0.02203661209826533</v>
+        <v>-0.01436408763150933</v>
       </c>
       <c r="D66">
-        <v>0.1240308188849378</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1393851242533545</v>
+      </c>
+      <c r="E66">
+        <v>-0.06449605236778823</v>
+      </c>
+      <c r="F66">
+        <v>-0.0269580272117864</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.06329160467976169</v>
+        <v>0.05626572315155782</v>
       </c>
       <c r="C67">
-        <v>0.005670278276361072</v>
+        <v>-0.003128851677466888</v>
       </c>
       <c r="D67">
-        <v>0.05453773756742168</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.05691548277998384</v>
+      </c>
+      <c r="E67">
+        <v>-0.0178008856056152</v>
+      </c>
+      <c r="F67">
+        <v>0.03461054199446263</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1068858821224833</v>
+        <v>0.1164523148978539</v>
       </c>
       <c r="C68">
-        <v>0.02286841507303627</v>
+        <v>-0.03379772168278923</v>
       </c>
       <c r="D68">
-        <v>-0.2674488720685462</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2610532385309255</v>
+      </c>
+      <c r="E68">
+        <v>0.08852979323226402</v>
+      </c>
+      <c r="F68">
+        <v>-0.001413382180579242</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.03989381105921467</v>
+        <v>0.03867391338936428</v>
       </c>
       <c r="C69">
-        <v>0.002120831799606626</v>
+        <v>-0.001262811152949154</v>
       </c>
       <c r="D69">
-        <v>0.005685026087452769</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.008324524359752632</v>
+      </c>
+      <c r="E69">
+        <v>-0.02396647847669522</v>
+      </c>
+      <c r="F69">
+        <v>0.001541949642604332</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.06651872357278869</v>
+        <v>0.06671890563377467</v>
       </c>
       <c r="C70">
-        <v>-0.02457536746975199</v>
+        <v>0.02708863842631719</v>
       </c>
       <c r="D70">
-        <v>-0.005319062168440816</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.02483848452259278</v>
+      </c>
+      <c r="E70">
+        <v>0.0321313673866706</v>
+      </c>
+      <c r="F70">
+        <v>0.1812929557269939</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1255976982784017</v>
+        <v>0.1366622192528312</v>
       </c>
       <c r="C71">
-        <v>0.02687068693576089</v>
+        <v>-0.03829961690434781</v>
       </c>
       <c r="D71">
-        <v>-0.2840742844157658</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2712448192947737</v>
+      </c>
+      <c r="E71">
+        <v>0.09819425357075957</v>
+      </c>
+      <c r="F71">
+        <v>-0.007196594596134624</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1381597864579034</v>
+        <v>0.1439178795817858</v>
       </c>
       <c r="C72">
-        <v>0.02794841587393181</v>
+        <v>-0.02799305725361757</v>
       </c>
       <c r="D72">
-        <v>0.005249729104747607</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.004733284671934605</v>
+      </c>
+      <c r="E72">
+        <v>-0.03722254729240686</v>
+      </c>
+      <c r="F72">
+        <v>-0.02937730700119837</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.2070928441904827</v>
+        <v>0.205160591034363</v>
       </c>
       <c r="C73">
-        <v>0.01738609683689996</v>
+        <v>-0.01365566237598705</v>
       </c>
       <c r="D73">
-        <v>0.009084816286919425</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.01764822932955042</v>
+      </c>
+      <c r="E73">
+        <v>-0.06734707401785361</v>
+      </c>
+      <c r="F73">
+        <v>-0.04013034844325063</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.09360656182228198</v>
+        <v>0.09485965360223789</v>
       </c>
       <c r="C74">
-        <v>0.01433026776934908</v>
+        <v>-0.01401816608596701</v>
       </c>
       <c r="D74">
-        <v>0.01912894946679506</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01674091855061663</v>
+      </c>
+      <c r="E74">
+        <v>-0.04446501522260832</v>
+      </c>
+      <c r="F74">
+        <v>-0.0531133365474718</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.1339526107920836</v>
+        <v>0.1266180121582503</v>
       </c>
       <c r="C75">
-        <v>0.03062462634342696</v>
+        <v>-0.02920601987309427</v>
       </c>
       <c r="D75">
-        <v>0.02990901236200521</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.0287626864580756</v>
+      </c>
+      <c r="E75">
+        <v>-0.05717739406447061</v>
+      </c>
+      <c r="F75">
+        <v>-0.02081883149150224</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.08250246474089021</v>
+        <v>0.09037130813054703</v>
       </c>
       <c r="C77">
-        <v>0.0148858937287905</v>
+        <v>-0.008521085426577191</v>
       </c>
       <c r="D77">
-        <v>0.1005140547875257</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1143633348206552</v>
+      </c>
+      <c r="E77">
+        <v>-0.04512341321364888</v>
+      </c>
+      <c r="F77">
+        <v>-0.03323928940657585</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.09948173966511965</v>
+        <v>0.1005843053036581</v>
       </c>
       <c r="C78">
-        <v>0.04405201805662792</v>
+        <v>-0.03853743816805035</v>
       </c>
       <c r="D78">
-        <v>0.1091861610555068</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1115141834028691</v>
+      </c>
+      <c r="E78">
+        <v>-0.0760075900324467</v>
+      </c>
+      <c r="F78">
+        <v>-0.05224546028892783</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1648094685775225</v>
+        <v>0.1630890471394625</v>
       </c>
       <c r="C79">
-        <v>0.02520762739539381</v>
+        <v>-0.0242061583380638</v>
       </c>
       <c r="D79">
-        <v>0.01193858331209656</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.01284850395074592</v>
+      </c>
+      <c r="E79">
+        <v>-0.04408930250398288</v>
+      </c>
+      <c r="F79">
+        <v>-0.01254732950275304</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.08061643203516075</v>
+        <v>0.07904240206809443</v>
       </c>
       <c r="C80">
-        <v>0.001167549684250403</v>
+        <v>0.0008658314279445255</v>
       </c>
       <c r="D80">
-        <v>0.05027109256191285</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.05416173486191982</v>
+      </c>
+      <c r="E80">
+        <v>-0.0324379372065338</v>
+      </c>
+      <c r="F80">
+        <v>0.02484888225555185</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1205988587263816</v>
+        <v>0.1176358948623668</v>
       </c>
       <c r="C81">
-        <v>0.03262942221463523</v>
+        <v>-0.03279611586912041</v>
       </c>
       <c r="D81">
-        <v>0.02295682512559819</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01411733999330882</v>
+      </c>
+      <c r="E81">
+        <v>-0.05509808448521428</v>
+      </c>
+      <c r="F81">
+        <v>-0.01880305166292764</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1660886343750226</v>
+        <v>0.165458963255262</v>
       </c>
       <c r="C82">
-        <v>0.02595797724932072</v>
+        <v>-0.02659553589344339</v>
       </c>
       <c r="D82">
-        <v>0.01340259833701295</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.002201615852221992</v>
+      </c>
+      <c r="E82">
+        <v>-0.02842112551119227</v>
+      </c>
+      <c r="F82">
+        <v>-0.08172230140115942</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.06302832162620622</v>
+        <v>0.0573796682668626</v>
       </c>
       <c r="C83">
-        <v>0.005586089908714868</v>
+        <v>-0.003200943821593447</v>
       </c>
       <c r="D83">
-        <v>0.04132971525721495</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.04836792879894985</v>
+      </c>
+      <c r="E83">
+        <v>-0.001140567783215832</v>
+      </c>
+      <c r="F83">
+        <v>0.03531627575684181</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.06304827081094355</v>
+        <v>0.05724668946999376</v>
       </c>
       <c r="C84">
-        <v>0.01420781539544611</v>
+        <v>-0.01096764676849251</v>
       </c>
       <c r="D84">
-        <v>0.06594702109988121</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.07200208250988153</v>
+      </c>
+      <c r="E84">
+        <v>-0.01398676075118714</v>
+      </c>
+      <c r="F84">
+        <v>-0.01489575649763695</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1381564759064299</v>
+        <v>0.1343616591779891</v>
       </c>
       <c r="C85">
-        <v>0.02940334788403738</v>
+        <v>-0.02924280573800082</v>
       </c>
       <c r="D85">
-        <v>0.01496378338390439</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.009573643377255808</v>
+      </c>
+      <c r="E85">
+        <v>-0.03674755523187106</v>
+      </c>
+      <c r="F85">
+        <v>-0.04773963392999205</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.1014124414822691</v>
+        <v>0.09363541473964568</v>
       </c>
       <c r="C86">
-        <v>-0.002354455055168974</v>
+        <v>0.005612907954607786</v>
       </c>
       <c r="D86">
-        <v>0.003009310898462224</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.05118885795253482</v>
+      </c>
+      <c r="E86">
+        <v>-0.2183604647050003</v>
+      </c>
+      <c r="F86">
+        <v>0.900255236674698</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.09947861364390083</v>
+        <v>0.09361945696789331</v>
       </c>
       <c r="C87">
-        <v>0.02822849555949723</v>
+        <v>-0.01954513521604561</v>
       </c>
       <c r="D87">
-        <v>0.07053046057664847</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09609698248546271</v>
+      </c>
+      <c r="E87">
+        <v>0.05133243757796024</v>
+      </c>
+      <c r="F87">
+        <v>-0.05193512497319845</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.06003922527573569</v>
+        <v>0.06035974172123088</v>
       </c>
       <c r="C88">
-        <v>0.005298714604735456</v>
+        <v>-0.002677060086732829</v>
       </c>
       <c r="D88">
-        <v>0.05472503520025622</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.0500257957064416</v>
+      </c>
+      <c r="E88">
+        <v>-0.02472699970247251</v>
+      </c>
+      <c r="F88">
+        <v>-0.01491905509703375</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1182498031360265</v>
+        <v>0.1273765231654328</v>
       </c>
       <c r="C89">
-        <v>0.004018870590823917</v>
+        <v>-0.01361630094257021</v>
       </c>
       <c r="D89">
-        <v>-0.2525975905980599</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.2446114725393826</v>
+      </c>
+      <c r="E89">
+        <v>0.09249029814244304</v>
+      </c>
+      <c r="F89">
+        <v>0.0078743864232735</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1367636507037597</v>
+        <v>0.1512412549696039</v>
       </c>
       <c r="C90">
-        <v>0.02341504703456385</v>
+        <v>-0.03496476949452337</v>
       </c>
       <c r="D90">
-        <v>-0.269010085382397</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2683565549148036</v>
+      </c>
+      <c r="E90">
+        <v>0.1142727091605244</v>
+      </c>
+      <c r="F90">
+        <v>0.008582971702781128</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.1206766891314844</v>
+        <v>0.1208394680414695</v>
       </c>
       <c r="C91">
-        <v>0.02030203880699115</v>
+        <v>-0.02083107621586594</v>
       </c>
       <c r="D91">
-        <v>-0.009635926383252006</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.01630553633907858</v>
+      </c>
+      <c r="E91">
+        <v>-0.0537278750376417</v>
+      </c>
+      <c r="F91">
+        <v>0.001409899619916728</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1396036569184656</v>
+        <v>0.1473392342702946</v>
       </c>
       <c r="C92">
-        <v>0.01397063621696609</v>
+        <v>-0.02595685581368587</v>
       </c>
       <c r="D92">
-        <v>-0.3041670106159347</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.2908322180006722</v>
+      </c>
+      <c r="E92">
+        <v>0.1019467416812637</v>
+      </c>
+      <c r="F92">
+        <v>0.01897864015314031</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1409645525007765</v>
+        <v>0.1528092947820086</v>
       </c>
       <c r="C93">
-        <v>0.01949185286095143</v>
+        <v>-0.0298831259416599</v>
       </c>
       <c r="D93">
-        <v>-0.2695838028198624</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.264745387721382</v>
+      </c>
+      <c r="E93">
+        <v>0.07642995241573564</v>
+      </c>
+      <c r="F93">
+        <v>-0.002453121812382438</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1340029949932772</v>
+        <v>0.1271710546749186</v>
       </c>
       <c r="C94">
-        <v>0.02734714903775387</v>
+        <v>-0.02549017366440576</v>
       </c>
       <c r="D94">
-        <v>0.0426311061784979</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.03979098505009968</v>
+      </c>
+      <c r="E94">
+        <v>-0.05710043812654903</v>
+      </c>
+      <c r="F94">
+        <v>-0.0323398535207108</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1242572562481751</v>
+        <v>0.1270464297118781</v>
       </c>
       <c r="C95">
-        <v>0.009576897829971691</v>
+        <v>-0.003431252412014829</v>
       </c>
       <c r="D95">
-        <v>0.0866406372595217</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.09928077844492297</v>
+      </c>
+      <c r="E95">
+        <v>-0.05440111444222193</v>
+      </c>
+      <c r="F95">
+        <v>-0.001678203285196569</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.1210500346929557</v>
+        <v>0.114951536254981</v>
       </c>
       <c r="C96">
-        <v>-0.986903507173668</v>
+        <v>0.9864965923330357</v>
       </c>
       <c r="D96">
-        <v>-0.01370270440951111</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.05206757281047848</v>
+      </c>
+      <c r="E96">
+        <v>-0.05229942302043471</v>
+      </c>
+      <c r="F96">
+        <v>-0.04201917093612777</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1944677919590149</v>
+        <v>0.1948916191588927</v>
       </c>
       <c r="C97">
-        <v>-0.005045912981612734</v>
+        <v>0.005416639074612056</v>
       </c>
       <c r="D97">
-        <v>-0.0120416116401236</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.02059317790917081</v>
+      </c>
+      <c r="E97">
+        <v>-0.02070396854595769</v>
+      </c>
+      <c r="F97">
+        <v>0.1142364492347176</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.1998688638695787</v>
+        <v>0.2064946659108076</v>
       </c>
       <c r="C98">
-        <v>0.01190544715239585</v>
+        <v>-0.007764121109072109</v>
       </c>
       <c r="D98">
-        <v>0.01078543975292099</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01466807016468721</v>
+      </c>
+      <c r="E98">
+        <v>0.07628063014115767</v>
+      </c>
+      <c r="F98">
+        <v>0.09193258670528091</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.05518056940663779</v>
+        <v>0.0555979016731314</v>
       </c>
       <c r="C99">
-        <v>-0.00196420952993223</v>
+        <v>0.004132797723882668</v>
       </c>
       <c r="D99">
-        <v>0.02527864511903961</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.03840014778500482</v>
+      </c>
+      <c r="E99">
+        <v>-0.02152217434517473</v>
+      </c>
+      <c r="F99">
+        <v>-0.004104609533162281</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.1428213945695113</v>
+        <v>0.1290217666084366</v>
       </c>
       <c r="C100">
-        <v>-0.03857902006024056</v>
+        <v>0.05175181045014783</v>
       </c>
       <c r="D100">
-        <v>0.4033625020245456</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.352741669342755</v>
+      </c>
+      <c r="E100">
+        <v>0.8863697882389168</v>
+      </c>
+      <c r="F100">
+        <v>0.1442937566506712</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.02523026657445921</v>
+        <v>0.02856646708462666</v>
       </c>
       <c r="C101">
-        <v>0.009547645849003902</v>
+        <v>-0.008861280793323689</v>
       </c>
       <c r="D101">
-        <v>0.024417420809369</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.03088677085638313</v>
+      </c>
+      <c r="E101">
+        <v>-0.01238616566967281</v>
+      </c>
+      <c r="F101">
+        <v>0.01400148628633939</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
